--- a/第二轮建模/简化数据/每书号的销量.xlsx
+++ b/第二轮建模/简化数据/每书号的销量.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="157">
   <si>
     <t>实际销售量</t>
   </si>
@@ -307,12 +308,236 @@
   <si>
     <t>书号数目</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_2</t>
+  </si>
+  <si>
+    <t>Amt_3</t>
+  </si>
+  <si>
+    <t>Amt_4</t>
+  </si>
+  <si>
+    <t>Amt_5</t>
+  </si>
+  <si>
+    <t>Amt_6</t>
+  </si>
+  <si>
+    <t>Amt_7</t>
+  </si>
+  <si>
+    <t>Amt_8</t>
+  </si>
+  <si>
+    <t>Amt_9</t>
+  </si>
+  <si>
+    <t>Amt_10</t>
+  </si>
+  <si>
+    <t>Amt_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_12</t>
+  </si>
+  <si>
+    <t>Amt_13</t>
+  </si>
+  <si>
+    <t>Amt_14</t>
+  </si>
+  <si>
+    <t>Amt_15</t>
+  </si>
+  <si>
+    <t>Amt_16</t>
+  </si>
+  <si>
+    <t>Amt_17</t>
+  </si>
+  <si>
+    <t>Amt_18</t>
+  </si>
+  <si>
+    <t>Amt_19</t>
+  </si>
+  <si>
+    <t>Amt_20</t>
+  </si>
+  <si>
+    <t>Amt_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_22</t>
+  </si>
+  <si>
+    <t>Amt_23</t>
+  </si>
+  <si>
+    <t>Amt_24</t>
+  </si>
+  <si>
+    <t>Amt_25</t>
+  </si>
+  <si>
+    <t>Amt_26</t>
+  </si>
+  <si>
+    <t>Amt_27</t>
+  </si>
+  <si>
+    <t>Amt_28</t>
+  </si>
+  <si>
+    <t>Amt_29</t>
+  </si>
+  <si>
+    <t>Amt_30</t>
+  </si>
+  <si>
+    <t>Amt_31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_32</t>
+  </si>
+  <si>
+    <t>Amt_33</t>
+  </si>
+  <si>
+    <t>Amt_34</t>
+  </si>
+  <si>
+    <t>Amt_35</t>
+  </si>
+  <si>
+    <t>Amt_36</t>
+  </si>
+  <si>
+    <t>Amt_37</t>
+  </si>
+  <si>
+    <t>Amt_38</t>
+  </si>
+  <si>
+    <t>Amt_39</t>
+  </si>
+  <si>
+    <t>Amt_40</t>
+  </si>
+  <si>
+    <t>Amt_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_42</t>
+  </si>
+  <si>
+    <t>Amt_43</t>
+  </si>
+  <si>
+    <t>Amt_44</t>
+  </si>
+  <si>
+    <t>Amt_45</t>
+  </si>
+  <si>
+    <t>Amt_46</t>
+  </si>
+  <si>
+    <t>Amt_47</t>
+  </si>
+  <si>
+    <t>Amt_48</t>
+  </si>
+  <si>
+    <t>Amt_49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_50</t>
+  </si>
+  <si>
+    <t>Amt_51</t>
+  </si>
+  <si>
+    <t>Amt_52</t>
+  </si>
+  <si>
+    <t>Amt_53</t>
+  </si>
+  <si>
+    <t>Amt_54</t>
+  </si>
+  <si>
+    <t>Amt_55</t>
+  </si>
+  <si>
+    <t>Amt_56</t>
+  </si>
+  <si>
+    <t>Amt_57</t>
+  </si>
+  <si>
+    <t>Amt_58</t>
+  </si>
+  <si>
+    <t>Amt_59</t>
+  </si>
+  <si>
+    <t>Amt_60</t>
+  </si>
+  <si>
+    <t>Amt_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_62</t>
+  </si>
+  <si>
+    <t>Amt_63</t>
+  </si>
+  <si>
+    <t>Amt_64</t>
+  </si>
+  <si>
+    <t>Amt_65</t>
+  </si>
+  <si>
+    <t>Amt_66</t>
+  </si>
+  <si>
+    <t>Amt_68</t>
+  </si>
+  <si>
+    <t>Amt_67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt_69</t>
+  </si>
+  <si>
+    <t>Amt_70</t>
+  </si>
+  <si>
+    <t>Amt_71</t>
+  </si>
+  <si>
+    <t>Amt_72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,16 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,8 +678,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,12 +1003,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J70" workbookViewId="0">
-      <selection activeCell="U89" sqref="U89"/>
+    <sheetView topLeftCell="J83" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81:T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -792,13 +1020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -839,9 +1067,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,11 +1108,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -925,9 +1153,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,11 +1194,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1011,9 +1239,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,11 +1280,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1097,9 +1325,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,11 +1366,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1183,9 +1411,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,11 +1452,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1269,9 +1497,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,11 +1538,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1355,9 +1583,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,11 +1624,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1441,9 +1669,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,11 +1710,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1527,9 +1755,9 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,11 +1796,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1613,9 +1841,9 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,11 +1882,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
@@ -1697,9 +1925,9 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,13 +1971,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1790,9 +2018,9 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,11 +2059,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1876,9 +2104,9 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,11 +2145,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1962,9 +2190,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,11 +2231,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2048,9 +2276,9 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,11 +2317,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2134,9 +2362,9 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,11 +2403,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2220,9 +2448,9 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,11 +2489,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2306,9 +2534,9 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,11 +2575,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2392,9 +2620,9 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2433,11 +2661,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2478,9 +2706,9 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,11 +2747,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2564,9 +2792,9 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,11 +2833,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2648,9 +2876,9 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2694,13 +2922,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="6">
         <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2741,9 +2969,9 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,11 +3010,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="6">
         <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2827,9 +3055,9 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2868,11 +3096,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6">
         <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2913,9 +3141,9 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2954,11 +3182,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="6">
         <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -2999,9 +3227,9 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,11 +3268,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="6">
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3085,9 +3313,9 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3126,11 +3354,11 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="6">
         <v>26</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3171,9 +3399,9 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3212,11 +3440,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="6">
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3257,9 +3485,9 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,11 +3526,11 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="6">
         <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3343,9 +3571,9 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3384,11 +3612,11 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="6">
         <v>29</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3429,9 +3657,9 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,11 +3698,11 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="6">
         <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3515,9 +3743,9 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="10"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3556,11 +3784,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
@@ -3599,9 +3827,9 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3645,13 +3873,13 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="6">
         <v>31</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3692,9 +3920,9 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3733,11 +3961,11 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="6">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3778,9 +4006,9 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3819,11 +4047,11 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="6">
         <v>33</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3864,9 +4092,9 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3905,11 +4133,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="6">
         <v>34</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3932,9 +4160,9 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3955,11 +4183,11 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="6">
         <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3982,9 +4210,9 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="10"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
@@ -4005,11 +4233,11 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="6">
         <v>36</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4032,9 +4260,9 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="1" t="s">
         <v>0</v>
       </c>
@@ -4055,11 +4283,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="6">
         <v>37</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4082,9 +4310,9 @@
       </c>
     </row>
     <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
@@ -4105,11 +4333,11 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="6">
         <v>38</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4162,9 +4390,9 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
@@ -4215,11 +4443,11 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="6" t="s">
+      <c r="A83" s="8"/>
+      <c r="B83" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="6">
         <v>39</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4272,9 +4500,9 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
@@ -4325,11 +4553,11 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="6">
         <v>40</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4376,9 +4604,9 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="1" t="s">
         <v>0</v>
       </c>
@@ -4417,11 +4645,11 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="6" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
@@ -4460,9 +4688,9 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="10"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
@@ -4506,13 +4734,13 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="6">
         <v>41</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4553,9 +4781,9 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="10"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4576,11 +4804,11 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="6">
         <v>42</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4603,9 +4831,9 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="10"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4626,11 +4854,11 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="6">
         <v>43</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4653,9 +4881,9 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="10"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,11 +4904,11 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="8"/>
+      <c r="B95" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="6">
         <v>44</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4703,9 +4931,9 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="14"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="10"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
@@ -4726,11 +4954,11 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="6">
         <v>45</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4753,9 +4981,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="10"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4776,11 +5004,11 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="6">
         <v>46</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -4803,9 +5031,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="10"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
@@ -4826,11 +5054,11 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="6">
         <v>47</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -4853,9 +5081,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="10"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="1" t="s">
         <v>0</v>
       </c>
@@ -4876,11 +5104,11 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="6">
         <v>48</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -4903,9 +5131,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="10"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="1" t="s">
         <v>0</v>
       </c>
@@ -4926,11 +5154,11 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="6" t="s">
+      <c r="A105" s="8"/>
+      <c r="B105" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="1" t="s">
         <v>84</v>
       </c>
@@ -4951,9 +5179,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="10"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4979,13 +5207,13 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="6">
         <v>49</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -5008,9 +5236,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="10"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
@@ -5031,11 +5259,11 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="8"/>
+      <c r="B109" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="6">
         <v>50</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5058,9 +5286,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="10"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
@@ -5081,11 +5309,11 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="8"/>
+      <c r="B111" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="6">
         <v>51</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -5108,9 +5336,9 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="10"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
@@ -5131,11 +5359,11 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="8"/>
+      <c r="B113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="6">
         <v>52</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -5158,9 +5386,9 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="10"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
@@ -5181,11 +5409,11 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="6">
         <v>53</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -5208,9 +5436,9 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="10"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="1" t="s">
         <v>0</v>
       </c>
@@ -5231,11 +5459,11 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="6">
         <v>54</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -5258,9 +5486,9 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A118" s="14"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="10"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="1" t="s">
         <v>0</v>
       </c>
@@ -5281,11 +5509,11 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="1" t="s">
         <v>84</v>
       </c>
@@ -5306,9 +5534,9 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="10"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="1" t="s">
         <v>0</v>
       </c>
@@ -5334,13 +5562,13 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="6">
         <v>55</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -5363,9 +5591,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A122" s="14"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
@@ -5386,11 +5614,11 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
-      <c r="B123" s="6" t="s">
+      <c r="A123" s="8"/>
+      <c r="B123" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="6">
         <v>56</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -5413,9 +5641,9 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="10"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -5436,11 +5664,11 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="6" t="s">
+      <c r="A125" s="8"/>
+      <c r="B125" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="6">
         <v>57</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -5463,9 +5691,9 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="10"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="1" t="s">
         <v>0</v>
       </c>
@@ -5486,11 +5714,11 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="8"/>
+      <c r="B127" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="6">
         <v>58</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -5513,9 +5741,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A128" s="14"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="10"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="1" t="s">
         <v>0</v>
       </c>
@@ -5536,11 +5764,11 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="8"/>
+      <c r="B129" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="6">
         <v>59</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -5563,9 +5791,9 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A130" s="14"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="10"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="1" t="s">
         <v>0</v>
       </c>
@@ -5586,11 +5814,11 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="6" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="6">
         <v>60</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -5613,9 +5841,9 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="10"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="1" t="s">
         <v>0</v>
       </c>
@@ -5636,11 +5864,11 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
-      <c r="B133" s="6" t="s">
+      <c r="A133" s="8"/>
+      <c r="B133" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="6"/>
       <c r="D133" s="1" t="s">
         <v>84</v>
       </c>
@@ -5661,9 +5889,9 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A134" s="14"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="10"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="1" t="s">
         <v>0</v>
       </c>
@@ -5689,13 +5917,13 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="6">
         <v>61</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -5718,9 +5946,9 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A136" s="14"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="10"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="1" t="s">
         <v>0</v>
       </c>
@@ -5741,11 +5969,11 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
-      <c r="B137" s="6" t="s">
+      <c r="A137" s="8"/>
+      <c r="B137" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="6">
         <v>62</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -5768,9 +5996,9 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A138" s="14"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="10"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="1" t="s">
         <v>0</v>
       </c>
@@ -5791,11 +6019,11 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
-      <c r="B139" s="6" t="s">
+      <c r="A139" s="8"/>
+      <c r="B139" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="6">
         <v>63</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -5818,9 +6046,9 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A140" s="14"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="10"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="1" t="s">
         <v>0</v>
       </c>
@@ -5841,11 +6069,11 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
-      <c r="B141" s="6" t="s">
+      <c r="A141" s="8"/>
+      <c r="B141" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="6">
         <v>64</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5868,9 +6096,9 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A142" s="14"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="10"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="1" t="s">
         <v>0</v>
       </c>
@@ -5891,11 +6119,11 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="8"/>
+      <c r="B143" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="6">
         <v>65</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -5918,9 +6146,9 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A144" s="14"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="10"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="1" t="s">
         <v>0</v>
       </c>
@@ -5941,11 +6169,11 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="8"/>
+      <c r="B145" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="6">
         <v>66</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -5968,9 +6196,9 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A146" s="14"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="10"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="1" t="s">
         <v>0</v>
       </c>
@@ -5991,11 +6219,11 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A147" s="14"/>
-      <c r="B147" s="6" t="s">
+      <c r="A147" s="8"/>
+      <c r="B147" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,9 +6244,9 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A148" s="14"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="10"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="1" t="s">
         <v>0</v>
       </c>
@@ -6044,13 +6272,13 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="6">
         <v>67</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -6073,9 +6301,9 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A150" s="12"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="10"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="1" t="s">
         <v>0</v>
       </c>
@@ -6096,11 +6324,11 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="10"/>
+      <c r="B151" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="6">
         <v>68</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -6123,9 +6351,9 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="10"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="1" t="s">
         <v>0</v>
       </c>
@@ -6146,11 +6374,11 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
-      <c r="B153" s="6" t="s">
+      <c r="A153" s="10"/>
+      <c r="B153" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="6">
         <v>69</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6173,9 +6401,9 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="10"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="1" t="s">
         <v>0</v>
       </c>
@@ -6196,11 +6424,11 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="10"/>
+      <c r="B155" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="6">
         <v>70</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -6223,9 +6451,9 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="10"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="1" t="s">
         <v>0</v>
       </c>
@@ -6246,11 +6474,11 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
-      <c r="B157" s="6" t="s">
+      <c r="A157" s="10"/>
+      <c r="B157" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="6">
         <v>71</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -6273,9 +6501,9 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A158" s="12"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="10"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="1" t="s">
         <v>0</v>
       </c>
@@ -6296,11 +6524,11 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
-      <c r="B159" s="6" t="s">
+      <c r="A159" s="10"/>
+      <c r="B159" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="6">
         <v>72</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -6323,9 +6551,9 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="10"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="1" t="s">
         <v>0</v>
       </c>
@@ -6346,11 +6574,11 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="5" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C161" s="7"/>
+      <c r="C161" s="13"/>
       <c r="D161" s="1" t="s">
         <v>84</v>
       </c>
@@ -6371,9 +6599,9 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="1" t="s">
         <v>0</v>
       </c>
@@ -6400,99 +6628,60 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="A1:A22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A23:A44"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A45:A66"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A88"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="A149:A162"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A135:A148"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
     <mergeCell ref="A107:A120"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
@@ -6517,62 +6706,597 @@
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="A149:A162"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A135:A148"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A67:A88"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A45:A66"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A23:A44"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A1:A22"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838009A-25DA-4E96-BC4F-5DBC3DD16274}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="15">
+        <v>303.49332928693701</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="15">
+        <v>1692.9369190999801</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="15">
+        <v>707.18717331763003</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="15">
+        <v>795.40718254596504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="15">
+        <v>416.932929546786</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2255.9923507032699</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="15">
+        <v>942.68138707564106</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="15">
+        <v>526.07766650113797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="15">
+        <v>235.488418443348</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="15">
+        <v>513.70924484026705</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="15">
+        <v>9444.3713998295698</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="15">
+        <v>882.68464603313805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="15">
+        <v>293.103152311099</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1182.9641052102099</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1385.68511066838</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="15">
+        <v>329.83137894057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="15">
+        <v>188.97461781043199</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="15">
+        <v>380.61358473630003</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1831.8481041372099</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="15">
+        <v>547.48162155816101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="15">
+        <v>324.22823650194601</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="15">
+        <v>667.32560524870496</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2886.8614071462598</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="15">
+        <v>274.15978514604899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="15">
+        <v>513.98388844816895</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="15">
+        <v>805.18259487252703</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="15">
+        <v>720.24194520679498</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="15">
+        <v>79.873912439932596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="15">
+        <v>68.162010294072402</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="15">
+        <v>600.57876936148205</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="15">
+        <v>651.52283806410696</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="15">
+        <v>846.83183244079896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="15">
+        <v>430.22950501619999</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3201.91767818167</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="15">
+        <v>495.40230226563699</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="15">
+        <v>414.56190226472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="15">
+        <v>469.02210087139002</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1402.7478696964099</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3043.6008554423001</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="15">
+        <v>408.18345678235301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6719.41105418805</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="15">
+        <v>743.61632800597897</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="15">
+        <v>450.23189393159498</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="15">
+        <v>232.95129034912301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8178.7679546655199</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="15">
+        <v>349.27417097623902</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1067.3603337889899</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="15">
+        <v>632.94063430152801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="15">
+        <v>9414.5499075805692</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="15">
+        <v>466.78539996043202</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="15">
+        <v>521.91688103295496</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="15">
+        <v>618.88481523703501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4991.3497695272599</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="15">
+        <v>901.04841866036804</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="15">
+        <v>208.342516858317</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="15">
+        <v>793.08789532355195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="15">
+        <v>22467.899052619199</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1559.16869043617</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="15">
+        <v>979.92412145755304</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="15">
+        <v>293.65110089969198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="15">
+        <v>8605.0634178060809</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1262.0780753834499</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="15">
+        <v>484.73502311756101</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1466.2034168469499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4425.5849179303104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1279.8320558397099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="15">
+        <v>608.99710221402404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="15">
+        <v>483.36088222115802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="15">
+        <v>596.52329141755104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="15">
+        <v>464.02292296406898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="15">
+        <v>651.15130773691203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1182.1063845526701</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>